--- a/VTM/Applicants_Sample.xlsx
+++ b/VTM/Applicants_Sample.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VBV MTP NEW\My_New\Code\Final\VTM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147F7CF4-311E-4DAF-B34F-29540840110C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D0328932-E8EA-405B-8575-508CC235B851}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -45,9 +39,6 @@
     <t>slot_end</t>
   </si>
   <si>
-    <t>content writing,interviewing,photography,cooking</t>
-  </si>
-  <si>
     <t>c1</t>
   </si>
   <si>
@@ -66,65 +57,29 @@
     <t>c6</t>
   </si>
   <si>
-    <t>c7</t>
-  </si>
-  <si>
-    <t>c8</t>
-  </si>
-  <si>
-    <t>c9</t>
-  </si>
-  <si>
-    <t>c10</t>
-  </si>
-  <si>
-    <t>c11</t>
-  </si>
-  <si>
-    <t>c12</t>
-  </si>
-  <si>
-    <t>c13</t>
-  </si>
-  <si>
     <t>food critic,nutritionist</t>
   </si>
   <si>
-    <t>photography,content writing</t>
-  </si>
-  <si>
-    <t>planning,content writing</t>
-  </si>
-  <si>
-    <t>interviewing,content writing,driving</t>
-  </si>
-  <si>
-    <t>photography,interviewing</t>
-  </si>
-  <si>
-    <t>photography,content writing,food critic</t>
-  </si>
-  <si>
-    <t>planning knowledge,sports enthusiast</t>
-  </si>
-  <si>
-    <t>surfing,planning knowledge,designing</t>
-  </si>
-  <si>
-    <t>interviewing,planning knowledge</t>
-  </si>
-  <si>
-    <t>interviewing</t>
-  </si>
-  <si>
-    <t>photography,planning knowledge</t>
+    <t>cartography,chef,photography,guitarist</t>
+  </si>
+  <si>
+    <t>chef,cartography,driving</t>
+  </si>
+  <si>
+    <t>photography,cartography, sport enthusiast</t>
+  </si>
+  <si>
+    <t>driving,chef</t>
+  </si>
+  <si>
+    <t>planning knowledge,cartography</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,7 +179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -276,7 +231,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -470,26 +425,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79A0ED5-2FC2-4EC5-8BE4-07409E7FF6EC}">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="47.453125" customWidth="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,12 +464,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -529,12 +484,12 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -549,12 +504,12 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -569,12 +524,12 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -589,12 +544,12 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -609,12 +564,12 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -627,146 +582,6 @@
       </c>
       <c r="F7">
         <v>1600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>1100</v>
-      </c>
-      <c r="F8">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9">
-        <v>13</v>
-      </c>
-      <c r="D9">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1100</v>
-      </c>
-      <c r="F9">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>1100</v>
-      </c>
-      <c r="F10">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>1100</v>
-      </c>
-      <c r="F11">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>1100</v>
-      </c>
-      <c r="F12">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <v>1100</v>
-      </c>
-      <c r="F13">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="D14">
-        <v>17</v>
-      </c>
-      <c r="E14">
-        <v>1100</v>
-      </c>
-      <c r="F14">
-        <v>1500</v>
       </c>
     </row>
   </sheetData>
